--- a/03_PE/014_导入表注入dll.xlsx
+++ b/03_PE/014_导入表注入dll.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CDF5A-68B8-447A-AF09-5BEDDE6F16E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E31F0D-7F31-4C34-A873-03E3CE5BFB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
     <sheet name="01" sheetId="3" r:id="rId2"/>
     <sheet name="02" sheetId="4" r:id="rId3"/>
-    <sheet name="petool实现x86" sheetId="5" r:id="rId4"/>
+    <sheet name="x86" sheetId="5" r:id="rId4"/>
     <sheet name="x64" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
   <si>
     <t>练习：</t>
   </si>
@@ -408,13 +408,21 @@
   <si>
     <t>3、特洛伊注入(dll劫持)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   *** 关机命令需要提权令牌，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   *** 打开网页可以使用 创建进程方式，均有效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -424,6 +432,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -431,6 +440,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -438,11 +448,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -475,14 +487,6 @@
     <font>
       <sz val="12"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -566,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,9 +623,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1865,8 +1866,8 @@
   </sheetPr>
   <dimension ref="B5:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1921,7 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="10"/>
@@ -2056,7 +2057,7 @@
   <hyperlinks>
     <hyperlink ref="B6" location="'01'!A1" display="动态链接库" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B8" location="'02'!A1" display="导入表注入" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" location="petool实现!A1" display="  第三方工具实现" xr:uid="{24B236B2-282F-4332-BE7E-D9012B4ECD19}"/>
+    <hyperlink ref="B9" location="'x86'!A1" display="  第三方工具实现(x86)" xr:uid="{24B236B2-282F-4332-BE7E-D9012B4ECD19}"/>
     <hyperlink ref="B10" location="'x64'!A1" display="  … x64" xr:uid="{A7EDE2CB-F61B-4A2F-873E-CD2F781D35CD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -2866,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32ED9F4-4CA0-4A5C-8551-6EB7F480B0A5}">
   <dimension ref="B4:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" activeCellId="1" sqref="O11 O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2944,9 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O10" s="10"/>
+      <c r="O10" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2951,7 +2954,9 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O11" s="10"/>
+      <c r="O11" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -3012,7 +3017,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3020,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C55F3-ABF1-4141-BBB2-F5E1B17BD370}">
   <dimension ref="A3:S89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3063,14 +3069,18 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O7" s="10"/>
+      <c r="O7" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O8" s="10"/>
+      <c r="O8" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
